--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/16.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/16.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1768270521340329</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.378286709802028</v>
+        <v>-2.534846936566123</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002427555911196035</v>
+        <v>-0.08416205616823526</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1567414986874273</v>
+        <v>0.2103398641046857</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1681843070259892</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.568906938430841</v>
+        <v>-2.74363965375843</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.05436393468087963</v>
+        <v>-0.1314106724381317</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2056750104542324</v>
+        <v>0.2641032149562167</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1558951789388013</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.847838175838266</v>
+        <v>-3.03920010889726</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1275473851895872</v>
+        <v>-0.2401462939604661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2102405808345039</v>
+        <v>0.2772363475339404</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1386680445692722</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.054505793034256</v>
+        <v>-3.263745284942381</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2135807189463823</v>
+        <v>-0.3270498163794427</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2168575187825021</v>
+        <v>0.2931362712439362</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1156598852452213</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.134575560363734</v>
+        <v>-3.311026752294323</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2682887209127313</v>
+        <v>-0.3778813906644291</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2563985411804915</v>
+        <v>0.3239827072605642</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.0859525505467555</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.922107902126609</v>
+        <v>-3.098426959704971</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3003061154982681</v>
+        <v>-0.449733277314228</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2425879462885861</v>
+        <v>0.3221678674835647</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.05093564683837311</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.56133804912757</v>
+        <v>-2.742278888937703</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3888200709615171</v>
+        <v>-0.5527002488293822</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2373332332094057</v>
+        <v>0.2997853302499344</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.01133073617153801</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.139680540617411</v>
+        <v>-2.314963694075272</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3860488996849724</v>
+        <v>-0.5502970096717464</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2400343221775868</v>
+        <v>0.2941729053884813</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.03573305532809398</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.724839996643704</v>
+        <v>-1.929486907281876</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4266382366122342</v>
+        <v>-0.6308624633280885</v>
       </c>
       <c r="G10" t="n">
-        <v>0.260244307851945</v>
+        <v>0.3090361949539319</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.09585957440160009</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.200097252723026</v>
+        <v>-1.418321880582604</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5775342068076482</v>
+        <v>-0.7715176562138689</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2877282531152103</v>
+        <v>0.3197850689992017</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1775878467226207</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6159130309252743</v>
+        <v>-0.8836829307017479</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7583480224338724</v>
+        <v>-0.9300861791270081</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3449446177017405</v>
+        <v>0.3635354100432809</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.28504349745616</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.08909555866741575</v>
+        <v>-0.3898231239999714</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.069344105989789</v>
+        <v>-1.246420198503287</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3868465378627292</v>
+        <v>0.3969778115655446</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.415253888351643</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5226222500286927</v>
+        <v>0.2133548634124121</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.509342738617943</v>
+        <v>-1.67651970507508</v>
       </c>
       <c r="G14" t="n">
-        <v>0.480640027222704</v>
+        <v>0.4949295178884274</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5651931429128839</v>
       </c>
       <c r="E15" t="n">
-        <v>1.149028142519343</v>
+        <v>0.8298207485001556</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.910182151423881</v>
+        <v>-2.076740787514519</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5924913913710376</v>
+        <v>0.5713046335238615</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.729718794288407</v>
       </c>
       <c r="E16" t="n">
-        <v>1.660307782993751</v>
+        <v>1.309278640833209</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.297838790017004</v>
+        <v>-2.472556904863685</v>
       </c>
       <c r="G16" t="n">
-        <v>0.72574268038782</v>
+        <v>0.6863841640011942</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9018526807225551</v>
       </c>
       <c r="E17" t="n">
-        <v>2.202064467317787</v>
+        <v>1.861994446127606</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.666219143689906</v>
+        <v>-2.828303462405953</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8552022245125125</v>
+        <v>0.804182304023799</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.081299875468147</v>
       </c>
       <c r="E18" t="n">
-        <v>2.626513587777764</v>
+        <v>2.275756014562131</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.022119006281719</v>
+        <v>-3.160208894671773</v>
       </c>
       <c r="G18" t="n">
-        <v>1.007759729435381</v>
+        <v>0.9324738096757644</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.272488579614188</v>
       </c>
       <c r="E19" t="n">
-        <v>3.079040893074006</v>
+        <v>2.725953083105283</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.308645413858051</v>
+        <v>-3.430839028658337</v>
       </c>
       <c r="G19" t="n">
-        <v>1.19129799479924</v>
+        <v>1.106390358120536</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.478728181954654</v>
       </c>
       <c r="E20" t="n">
-        <v>3.375183907401109</v>
+        <v>3.050025357363378</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.571932235971389</v>
+        <v>-3.700251482537082</v>
       </c>
       <c r="G20" t="n">
-        <v>1.341436200035473</v>
+        <v>1.243729781791863</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.70214590086239</v>
       </c>
       <c r="E21" t="n">
-        <v>3.724145621464924</v>
+        <v>3.38452237499056</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.776486433555789</v>
+        <v>-3.925780730995477</v>
       </c>
       <c r="G21" t="n">
-        <v>1.45396794659417</v>
+        <v>1.364040664578921</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.936337378439848</v>
       </c>
       <c r="E22" t="n">
-        <v>4.034532864966931</v>
+        <v>3.704269986803384</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.956525693669787</v>
+        <v>-4.091560431429614</v>
       </c>
       <c r="G22" t="n">
-        <v>1.522120071381606</v>
+        <v>1.42809881451945</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.169007593225136</v>
       </c>
       <c r="E23" t="n">
-        <v>4.190447020450799</v>
+        <v>3.913379534431419</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.096804924172158</v>
+        <v>-4.194945706722813</v>
       </c>
       <c r="G23" t="n">
-        <v>1.60668897690322</v>
+        <v>1.517888852014153</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.389830756514845</v>
       </c>
       <c r="E24" t="n">
-        <v>4.333070358163124</v>
+        <v>4.06778984038165</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.148149705361099</v>
+        <v>-4.248595903847299</v>
       </c>
       <c r="G24" t="n">
-        <v>1.657649035420206</v>
+        <v>1.566685119260412</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.586929626029293</v>
       </c>
       <c r="E25" t="n">
-        <v>4.389533337934745</v>
+        <v>4.171994932677895</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.18978297667336</v>
+        <v>-4.271889511089657</v>
       </c>
       <c r="G25" t="n">
-        <v>1.655349459677025</v>
+        <v>1.580799404155227</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.748808593157913</v>
       </c>
       <c r="E26" t="n">
-        <v>4.393358663932927</v>
+        <v>4.200719918818432</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.12781780567115</v>
+        <v>-4.1754912959355</v>
       </c>
       <c r="G26" t="n">
-        <v>1.609398826159946</v>
+        <v>1.528468360480877</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.868841550417059</v>
       </c>
       <c r="E27" t="n">
-        <v>4.330083099769125</v>
+        <v>4.153303397018082</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.05333710243367</v>
+        <v>-4.100419273221203</v>
       </c>
       <c r="G27" t="n">
-        <v>1.569971687513048</v>
+        <v>1.50719983994061</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.942299305585979</v>
       </c>
       <c r="E28" t="n">
-        <v>4.262392350178416</v>
+        <v>4.108573363705003</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.89002926341744</v>
+        <v>-3.930834687462157</v>
       </c>
       <c r="G28" t="n">
-        <v>1.485554626992889</v>
+        <v>1.409113809193364</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.96849121010567</v>
       </c>
       <c r="E29" t="n">
-        <v>4.071813732920194</v>
+        <v>3.950802027049499</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.716898220845578</v>
+        <v>-3.761231851101975</v>
       </c>
       <c r="G29" t="n">
-        <v>1.393846086306731</v>
+        <v>1.3079952585613</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.94965412078903</v>
       </c>
       <c r="E30" t="n">
-        <v>3.944900512666047</v>
+        <v>3.846789661101255</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.561928716476529</v>
+        <v>-3.598802961036473</v>
       </c>
       <c r="G30" t="n">
-        <v>1.305903009647028</v>
+        <v>1.214664604446143</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.888222947283801</v>
       </c>
       <c r="E31" t="n">
-        <v>3.773826677854274</v>
+        <v>3.695382674074023</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.415864045413932</v>
+        <v>-3.444431346360651</v>
       </c>
       <c r="G31" t="n">
-        <v>1.215772780947143</v>
+        <v>1.114619189160897</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.790284477027556</v>
       </c>
       <c r="E32" t="n">
-        <v>3.583357564202871</v>
+        <v>3.539959094748701</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.245495413830068</v>
+        <v>-3.24271840236116</v>
       </c>
       <c r="G32" t="n">
-        <v>1.095237050754085</v>
+        <v>0.9976445162615651</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.663869584613602</v>
       </c>
       <c r="E33" t="n">
-        <v>3.408852616377463</v>
+        <v>3.358361233297658</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.112883625877104</v>
+        <v>-3.095052788566881</v>
       </c>
       <c r="G33" t="n">
-        <v>1.038482061364282</v>
+        <v>0.9486467623787601</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.516994750413834</v>
       </c>
       <c r="E34" t="n">
-        <v>3.176700589778708</v>
+        <v>3.173365839939072</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.073516349201932</v>
+        <v>-3.086678682741474</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9457923683610336</v>
+        <v>0.8549773771065126</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.359535900413923</v>
       </c>
       <c r="E35" t="n">
-        <v>2.869236362554699</v>
+        <v>2.887733711818421</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.967976042926552</v>
+        <v>-2.970933370334687</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8966748905347741</v>
+        <v>0.8054116645163441</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.199499019587303</v>
       </c>
       <c r="E36" t="n">
-        <v>2.593579282991137</v>
+        <v>2.594690379588318</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.909013460823295</v>
+        <v>-2.911945967413885</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8273430468898836</v>
+        <v>0.7434516036824516</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.042602178449684</v>
       </c>
       <c r="E37" t="n">
-        <v>2.309115193343213</v>
+        <v>2.328684217905662</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.857502964176036</v>
+        <v>-2.849262452750947</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7544165648451759</v>
+        <v>0.7018971749670991</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.893905184298228</v>
       </c>
       <c r="E38" t="n">
-        <v>2.002192643960932</v>
+        <v>2.017349403192655</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.779120282415603</v>
+        <v>-2.775072299083558</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6777567398320147</v>
+        <v>0.6252972119256651</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.755233793494716</v>
       </c>
       <c r="E39" t="n">
-        <v>1.71051737679201</v>
+        <v>1.735297312990913</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.661901781485088</v>
+        <v>-2.645476240462366</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6354547664941169</v>
+        <v>0.6034475922452165</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.627080883177082</v>
       </c>
       <c r="E40" t="n">
-        <v>1.452596961436807</v>
+        <v>1.50718377941161</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.545847668907074</v>
+        <v>-2.526899894807307</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5680998279643169</v>
+        <v>0.5303283838525088</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.511207493761124</v>
       </c>
       <c r="E41" t="n">
-        <v>1.214740526946871</v>
+        <v>1.254167665593769</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.438066918836194</v>
+        <v>-2.412413873878928</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4938432421087914</v>
+        <v>0.4671696235359803</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.406771562600006</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9897237553683855</v>
+        <v>1.041299954179735</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.323918899040861</v>
+        <v>-2.290967803701188</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4278651289287181</v>
+        <v>0.4038882191798155</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.312326558884731</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7823633453532594</v>
+        <v>0.8403155741776074</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.23050867230475</v>
+        <v>-2.191713734481215</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3512651658872842</v>
+        <v>0.3496926940933755</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.227249781500404</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6148593281237589</v>
+        <v>0.6789948606131053</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.175049475595628</v>
+        <v>-2.12738036547555</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2649179217909438</v>
+        <v>0.2570570228694913</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.149211471651015</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4346382920224436</v>
+        <v>0.4991986985062445</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.065233418486021</v>
+        <v>-2.018948433956125</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2223633601333188</v>
+        <v>0.2244935702979546</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.076561903150133</v>
       </c>
       <c r="E46" t="n">
-        <v>0.267710993788852</v>
+        <v>0.328143844319654</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.990833017893541</v>
+        <v>-1.945947489458781</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2022132364306878</v>
+        <v>0.196070814112235</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.008910348526694</v>
       </c>
       <c r="E47" t="n">
-        <v>0.05995637078918059</v>
+        <v>0.155979353583973</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.939933551372328</v>
+        <v>-1.882677765487343</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1307161414669798</v>
+        <v>0.1298036114101618</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.9444088766286877</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.04985676622424447</v>
+        <v>0.03696499350164131</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.874646040939254</v>
+        <v>-1.835145899887811</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1058398420940774</v>
+        <v>0.1169070066231653</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.8816877755904609</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1798244070845732</v>
+        <v>-0.09841650567977689</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.800346383665047</v>
+        <v>-1.75703259700015</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06302101173199795</v>
+        <v>0.06423431169554307</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.8211382440667488</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2886841326946349</v>
+        <v>-0.2015703633505674</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.770168649674055</v>
+        <v>-1.733438219851065</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01267417341319328</v>
+        <v>0.02566568132609889</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.7618675747584892</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.4064326310821487</v>
+        <v>-0.3088663774552659</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.726066437040067</v>
+        <v>-1.678194380235353</v>
       </c>
       <c r="G51" t="n">
-        <v>0.004754872568104501</v>
+        <v>0.01992331218455497</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.7039567562145758</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.4629788335949517</v>
+        <v>-0.366561637815614</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.726832962287794</v>
+        <v>-1.672342507486991</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.0581702800538786</v>
+        <v>-0.03948750468261089</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.6482604530968104</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5733117477287403</v>
+        <v>-0.4729246811902218</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.715637313526706</v>
+        <v>-1.665245213717083</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.06932066732414834</v>
+        <v>-0.04083512907051962</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.5948364232972498</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.578306572247739</v>
+        <v>-0.5159318577560285</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.691518779112986</v>
+        <v>-1.653179376293814</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1027280276922303</v>
+        <v>-0.07631283763151009</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.5443960138730709</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.7101386945201581</v>
+        <v>-0.6400636863969951</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.678525811151989</v>
+        <v>-1.638689859039636</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1348009041052217</v>
+        <v>-0.0977653242312316</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.4981200006349648</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7839528858041382</v>
+        <v>-0.7217708976604277</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.640212689198454</v>
+        <v>-1.605193435738009</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1578638237492155</v>
+        <v>-0.1214560645543162</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.456111391133402</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.9044418944582877</v>
+        <v>-0.8546995160491193</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.678908343751807</v>
+        <v>-1.642066950273908</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1527434350943987</v>
+        <v>-0.1239804877034973</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.4186667725658862</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.975248386674996</v>
+        <v>-0.9254972479772821</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.638295646055091</v>
+        <v>-1.619534028086914</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.199832906122386</v>
+        <v>-0.1621330043670325</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3862077307896173</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.095281860324782</v>
+        <v>-1.040313969798251</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.66327998898672</v>
+        <v>-1.629351391450184</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2200487319891078</v>
+        <v>-0.1871932697993894</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.3580338465806326</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.132130554043136</v>
+        <v>-1.082210049766876</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.669270566303719</v>
+        <v>-1.624016375726004</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2418939715252838</v>
+        <v>-0.1995277560713861</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3337321269084336</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.235262510992563</v>
+        <v>-1.166716173220581</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.701844239211892</v>
+        <v>-1.6729995291279</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2879409682163623</v>
+        <v>-0.2604584830011879</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3131608701583867</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.303229209672453</v>
+        <v>-1.217613449669658</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.69896502437662</v>
+        <v>-1.676821935029899</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3362860806025312</v>
+        <v>-0.3040934802460853</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.29546193035847</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.394523096700792</v>
+        <v>-1.279849459592732</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.768736342496874</v>
+        <v>-1.725130546213795</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3558886862710714</v>
+        <v>-0.3224331443159895</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.28010429740826</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.475142572136498</v>
+        <v>-1.344922342956442</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.789477055652277</v>
+        <v>-1.753800050526878</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4026321259015134</v>
+        <v>-0.3687925912985225</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2663398061669936</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.504326013377581</v>
+        <v>-1.360978491812165</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.854364512908442</v>
+        <v>-1.838971955910037</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4044177647166947</v>
+        <v>-0.3646460547203418</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.252945166434947</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.520247837808941</v>
+        <v>-1.385867931617886</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.952857897073052</v>
+        <v>-1.95307179411837</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4386062508134128</v>
+        <v>-0.3944091350535156</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2388568429128214</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.549399157992024</v>
+        <v>-1.424912537664966</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.014439075427353</v>
+        <v>-2.023684829963033</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4206476592952358</v>
+        <v>-0.368528322594068</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.2229785827468956</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.572989154996836</v>
+        <v>-1.452397942976322</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.124269002993824</v>
+        <v>-2.139184854290547</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4854197727522184</v>
+        <v>-0.4375696166688676</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.2044499147147102</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.557698071340749</v>
+        <v>-1.447857193413596</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.256372694211152</v>
+        <v>-2.28745200789828</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4985003435986695</v>
+        <v>-0.4587330137465892</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1835670447045537</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.568014771151109</v>
+        <v>-1.475983559836862</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.369427137986394</v>
+        <v>-2.41793650578279</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5193089489903002</v>
+        <v>-0.4730181242680399</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1611120501748187</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.602829617878827</v>
+        <v>-1.512370878358488</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.515442897437946</v>
+        <v>-2.590812039938744</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5847862656751918</v>
+        <v>-0.5324961033473876</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1381843726215072</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.603933414235554</v>
+        <v>-1.522353227156031</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.597687406398833</v>
+        <v>-2.689938354950763</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5985063375854608</v>
+        <v>-0.5515526510299279</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1162829938032761</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.565180817806656</v>
+        <v>-1.506413882147581</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.708576598855258</v>
+        <v>-2.816293836834184</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6040442999942774</v>
+        <v>-0.5660436283321968</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.09669127798359668</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.596132377285829</v>
+        <v>-1.562145377825657</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.814809697949775</v>
+        <v>-2.957025682244736</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6025857119514597</v>
+        <v>-0.5773283400268301</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.07989894600601027</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.466240658926228</v>
+        <v>-1.440507311323962</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.865047762685807</v>
+        <v>-3.023517002328764</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6394373257659952</v>
+        <v>-0.6130586369075478</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.06617491205714547</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.342872435436806</v>
+        <v>-1.335908006043172</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.897254233499116</v>
+        <v>-3.088767281535519</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6303689670733613</v>
+        <v>-0.6029083825795505</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.05587947370198964</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.216667338506749</v>
+        <v>-1.225659774698656</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.967915450930779</v>
+        <v>-3.168520218429271</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5895372621630086</v>
+        <v>-0.5793096252861932</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.0495564265686949</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.051338792932703</v>
+        <v>-1.094182444112328</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.995624243600044</v>
+        <v>-3.231349737901299</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6108919255406393</v>
+        <v>-0.5922602518525534</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.04746400363166881</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8389178562344871</v>
+        <v>-0.8930389188682908</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.049159826949394</v>
+        <v>-3.297669502334645</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6083791827761854</v>
+        <v>-0.5887940976847361</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.04973352349556656</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6207282695290912</v>
+        <v>-0.6869385303556188</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.058408501581255</v>
+        <v>-3.342002402566997</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5652581224592879</v>
+        <v>-0.5550275654862906</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.05638792322033952</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3581999423989798</v>
+        <v>-0.4324229471484144</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.080321633353658</v>
+        <v>-3.393247900485756</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5280239760449342</v>
+        <v>-0.5156617488592103</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.06747257098056302</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.07990455593514549</v>
+        <v>-0.1730074425481205</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.024159423488764</v>
+        <v>-3.342463777763724</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4900189242385808</v>
+        <v>-0.472650192149131</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.08324082935281857</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1858898987743286</v>
+        <v>0.1186444638513467</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.9904118719155</v>
+        <v>-3.341967361412815</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4610296693935886</v>
+        <v>-0.4542156249533177</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1033754297276583</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5306043329416906</v>
+        <v>0.4428554426780777</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.932163983352743</v>
+        <v>-3.289260355355057</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4179480303751456</v>
+        <v>-0.4069290474330577</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1273449963866383</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7915820889992569</v>
+        <v>0.7267895348690016</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.821480657677137</v>
+        <v>-3.212410724090077</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3786172549022471</v>
+        <v>-0.3644197472662509</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1544732121505562</v>
       </c>
       <c r="E86" t="n">
-        <v>1.06071713374073</v>
+        <v>0.9825943405404783</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.702516669253941</v>
+        <v>-3.129850114717508</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2958310680996329</v>
+        <v>-0.2880052103323623</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1834760980217524</v>
       </c>
       <c r="E87" t="n">
-        <v>1.251231508882952</v>
+        <v>1.172805025679791</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.566372294945023</v>
+        <v>-3.017773903163175</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2621287780171875</v>
+        <v>-0.2533465887503716</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.212510254417324</v>
       </c>
       <c r="E88" t="n">
-        <v>1.414045851644453</v>
+        <v>1.342672860768473</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.346149591273037</v>
+        <v>-2.787330132830782</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2553643752120074</v>
+        <v>-0.2515682501756448</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2390160035924385</v>
       </c>
       <c r="E89" t="n">
-        <v>1.576230913678774</v>
+        <v>1.483017063410889</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.111716239532236</v>
+        <v>-2.551968190504164</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1858033040168443</v>
+        <v>-0.1804712083888458</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2601767015724236</v>
       </c>
       <c r="E90" t="n">
-        <v>1.698673466678559</v>
+        <v>1.610905595789764</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.840975141890764</v>
+        <v>-2.267991026894558</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1748792242006655</v>
+        <v>-0.1703457748783939</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2725505918362094</v>
       </c>
       <c r="E91" t="n">
-        <v>1.765266260104905</v>
+        <v>1.649742875007935</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.570474952184291</v>
+        <v>-1.978310185417818</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.120355188293771</v>
+        <v>-0.1004153115162309</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2734925318021504</v>
       </c>
       <c r="E92" t="n">
-        <v>1.754656090628271</v>
+        <v>1.6137585297594</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.24229556264647</v>
+        <v>-1.613879261830824</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.124304618379679</v>
+        <v>-0.1108312945967736</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2612832984246765</v>
       </c>
       <c r="E93" t="n">
-        <v>1.798264807007532</v>
+        <v>1.64422243317621</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9322207694359166</v>
+        <v>-1.271752032880553</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1513812102255808</v>
+        <v>-0.1400147358378566</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2362792352709276</v>
       </c>
       <c r="E94" t="n">
-        <v>1.780682907896809</v>
+        <v>1.592263701765042</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7240222918166089</v>
+        <v>-1.014036024258076</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1470857487421275</v>
+        <v>-0.1435042507751284</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2007209659463681</v>
       </c>
       <c r="E95" t="n">
-        <v>1.780967617274537</v>
+        <v>1.584231977216953</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.4747804023137667</v>
+        <v>-0.7090918400389765</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1981742914911137</v>
+        <v>-0.2011060680576584</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.158295888662987</v>
       </c>
       <c r="E96" t="n">
-        <v>1.709304076828465</v>
+        <v>1.481659218686344</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.2395841754454663</v>
+        <v>-0.4205206351113268</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2244011353481067</v>
+        <v>-0.2258757839199245</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1140331541591143</v>
       </c>
       <c r="E97" t="n">
-        <v>1.58787479720377</v>
+        <v>1.360997924357468</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.09659582571041374</v>
+        <v>-0.2077595072079294</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3045723760199033</v>
+        <v>-0.3313043965163507</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.07134208818771903</v>
       </c>
       <c r="E98" t="n">
-        <v>1.494063787266705</v>
+        <v>1.289303722901487</v>
       </c>
       <c r="F98" t="n">
-        <v>0.03425806434109658</v>
+        <v>-0.04282517461842818</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.296199000218542</v>
+        <v>-0.3380045572055307</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.03368346458389938</v>
       </c>
       <c r="E99" t="n">
-        <v>1.340713476230473</v>
+        <v>1.134970799500074</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1167025998904381</v>
+        <v>0.07720683898326687</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3137779792330827</v>
+        <v>-0.3500718546768911</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.001674454709696935</v>
       </c>
       <c r="E100" t="n">
-        <v>1.184994967190788</v>
+        <v>0.9678522349665731</v>
       </c>
       <c r="F100" t="n">
-        <v>0.177791012014058</v>
+        <v>0.1759279906500585</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3404530578539846</v>
+        <v>-0.3886813663928808</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.03461704673531087</v>
       </c>
       <c r="E101" t="n">
-        <v>1.030286811430011</v>
+        <v>0.7992736223421639</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2225444060965915</v>
+        <v>0.2248410617435909</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2973962396530871</v>
+        <v>-0.3548505920784353</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.07459813286866677</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9128814243438607</v>
+        <v>0.6988982361883727</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2419805662827681</v>
+        <v>0.242444861575677</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3167214361843546</v>
+        <v>-0.3690641602434315</v>
       </c>
     </row>
   </sheetData>
